--- a/articoli_fabschool.xlsx
+++ b/articoli_fabschool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacch\Documents\v-research\green_office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47CC98-F8FA-41AC-BE74-BD8BF14D7B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A9289-09F8-412B-A83D-DC57DC4E56AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0B27FD77-A64A-4B19-B305-D5C3F521D751}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Link</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>https://www.amazon.it/Setik-Alimentatore-singola-telecamera-ALIM1AEU/dp/B00DUDC048/ref=sr_1_8?__mk_it_IT=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2LA0VY9DUIALR&amp;dchild=1&amp;keywords=alimentatore+12v&amp;qid=1629367160&amp;sprefix=alimentatore+12%2Caps%2C218&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Tot cost</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,9 @@
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
@@ -556,7 +561,7 @@
         <f>B2*C2</f>
         <v>6.99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -571,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D10" si="0">B3*C3</f>
+        <f>B3*C3</f>
         <v>7.99</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -589,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
+        <f>B4*C4</f>
         <v>25.92</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -601,16 +606,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>1.61</v>
+        <v>12.86</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>1.61</v>
-      </c>
-      <c r="E5" t="s">
+        <f>B5*C5</f>
+        <v>12.86</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -625,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>B6*C6</f>
         <v>21.98</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -643,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>B7*C7</f>
         <v>34.99</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -661,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>B8*C8</f>
         <v>7.99</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -679,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>B9*C9</f>
         <v>12</v>
       </c>
       <c r="E9" s="1"/>
@@ -695,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>B10*C10</f>
         <v>7.99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +713,19 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>127.46000000000001</v>
+        <v>138.71000000000004</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{182E3A9D-55E9-4B0F-8A68-F544BC9E48CA}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{D2D363D5-A103-431A-94BB-E942010DC9C2}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{7A1561F5-4185-4BFD-BA99-FD27F468FC85}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{3EEC4891-631B-4E78-95F5-308E2EBFEF75}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00CF40A5-2397-4362-88D8-6F3BD2000D42}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{23E2C649-AAB6-464A-895C-2E354E1B71AA}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{4A791BD5-5181-4C79-996A-3EF5C86DA20B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>